--- a/fundamentals-test-cases.xlsx
+++ b/fundamentals-test-cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\CPR101-NCC\FinalProjV1\Group33_Version01\fundamentals_module\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\CPR101-NCC\Group33_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17B415D-63E6-40C7-89D1-DEAB3641E746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B3AE8F-1DE5-4A02-86DC-73EE0F2AA1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -278,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{F73B17DE-5D6D-4BEE-8A16-22F591181658}">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{F73B17DE-5D6D-4BEE-8A16-22F591181658}">
       <text>
         <r>
           <rPr>
@@ -322,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{F368EADF-F05B-4C15-A4E0-CA9F2F783275}">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{F368EADF-F05B-4C15-A4E0-CA9F2F783275}">
       <text>
         <r>
           <rPr>
@@ -387,7 +387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{89399E78-2781-46CB-8982-30E3233EC7BC}">
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{89399E78-2781-46CB-8982-30E3233EC7BC}">
       <text>
         <r>
           <rPr>
@@ -413,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{34FB52D3-7A1D-4C5B-9838-1E77E035A0FA}">
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{34FB52D3-7A1D-4C5B-9838-1E77E035A0FA}">
       <text>
         <r>
           <rPr>
@@ -458,7 +458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{400DA026-3EB6-4927-87CA-8598E92E8996}">
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{400DA026-3EB6-4927-87CA-8598E92E8996}">
       <text>
         <r>
           <rPr>
@@ -482,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{9E419422-AFBA-4A9D-AF8D-AF50B3D1D5D0}">
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{9E419422-AFBA-4A9D-AF8D-AF50B3D1D5D0}">
       <text>
         <r>
           <rPr>
@@ -505,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{99451D2F-B00E-4B10-92E4-565F887D03DF}">
+    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{99451D2F-B00E-4B10-92E4-565F887D03DF}">
       <text>
         <r>
           <rPr>
@@ -520,7 +520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{C02017E4-821F-4A2D-86D8-AB6EEDB22A86}">
+    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{C02017E4-821F-4A2D-86D8-AB6EEDB22A86}">
       <text>
         <r>
           <rPr>
@@ -564,7 +564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{05B2FD82-D89E-4CA6-B9CD-DADA87D3459D}">
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{05B2FD82-D89E-4CA6-B9CD-DADA87D3459D}">
       <text>
         <r>
           <rPr>
@@ -629,7 +629,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{23C8660F-F760-4D26-A851-EB73153BFF94}">
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{23C8660F-F760-4D26-A851-EB73153BFF94}">
       <text>
         <r>
           <rPr>
@@ -655,7 +655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{D011BF0E-2314-4932-9D14-810DC408E97A}">
+    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{D011BF0E-2314-4932-9D14-810DC408E97A}">
       <text>
         <r>
           <rPr>
@@ -700,7 +700,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{135F8B3A-CCD4-4CA6-9ADB-2D061B1E1D5D}">
+    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{135F8B3A-CCD4-4CA6-9ADB-2D061B1E1D5D}">
       <text>
         <r>
           <rPr>
@@ -724,7 +724,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{CDD09690-9535-4ED1-A265-0F0404D34131}">
+    <comment ref="F21" authorId="0" shapeId="0" xr:uid="{CDD09690-9535-4ED1-A265-0F0404D34131}">
       <text>
         <r>
           <rPr>
@@ -747,7 +747,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{508032F0-07F6-4EDA-A011-0A700A6AF801}">
+    <comment ref="G21" authorId="0" shapeId="0" xr:uid="{508032F0-07F6-4EDA-A011-0A700A6AF801}">
       <text>
         <r>
           <rPr>
@@ -767,7 +767,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
   <si>
     <t>Comments</t>
   </si>
@@ -937,6 +937,67 @@
   </si>
   <si>
     <t xml:space="preserve">+Ensure the program can handle strings with both uppercase and lowercase letters </t>
+  </si>
+  <si>
+    <t>Michaela Cruz
+November 30, 2024</t>
+  </si>
+  <si>
+    <t>Validate string length calculation</t>
+  </si>
+  <si>
+    <t>Validate uppercase letters handling</t>
+  </si>
+  <si>
+    <t>Validate numeric input</t>
+  </si>
+  <si>
+    <t>+ Ensure the program handles uppercase letters correctly</t>
+  </si>
+  <si>
+    <t>+ Ensure that the string length is calculated correctly</t>
+  </si>
+  <si>
+    <t>+ Check if numeric input is processed correctly</t>
+  </si>
+  <si>
+    <t>+ Ensure that mixed-case strings are handled correctly</t>
+  </si>
+  <si>
+    <t>- Ensure the program handles empty input correctly</t>
+  </si>
+  <si>
+    <t>String: "Group 33 !!"</t>
+  </si>
+  <si>
+    <t>String: "Michaela&amp;Vadeeha"</t>
+  </si>
+  <si>
+    <t>String: "12345"</t>
+  </si>
+  <si>
+    <t>String: "VersionTwo"</t>
+  </si>
+  <si>
+    <t>The program should print "The length of '12345' is 5 characters"</t>
+  </si>
+  <si>
+    <t>The program should print "The length of 'VersionTwo' is 10 characters"</t>
+  </si>
+  <si>
+    <t>The program should prompt the user to enter a valid string again</t>
+  </si>
+  <si>
+    <t>Recommended fix: Add a check for empty input to prompt the user for a valid string. The program should not continue with empty input</t>
+  </si>
+  <si>
+    <t>The program should print "The length of 'Group 33 !!' is 11 characters"</t>
+  </si>
+  <si>
+    <t>The program should print "The length of 'Michaela&amp;Vadeeha' is 16 characters"</t>
+  </si>
+  <si>
+    <t>Program prints that there is 0 characters and continues without prompting for valid input</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1271,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1285,6 +1346,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1591,10 +1655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489FCF92-76BB-4101-9D49-11677A4362B7}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1802,157 +1866,225 @@
       </c>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" ht="26.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="4" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G12" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="13"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="1:7" ht="26.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="26.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+    <row r="21" spans="1:7" ht="26.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B21" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C21" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D21" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E21" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G21" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" ht="26.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="26.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="9"/>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+      <c r="A24" s="2"/>
       <c r="B24" s="13"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="9"/>
+      <c r="F24" s="26"/>
     </row>
     <row r="25" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="2"/>
       <c r="B25" s="13"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="9"/>
+      <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="2"/>
       <c r="B26" s="13"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="9"/>
+      <c r="F26" s="26"/>
     </row>
     <row r="27" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
@@ -1972,14 +2104,20 @@
       <c r="E29" s="2"/>
       <c r="F29" s="9"/>
     </row>
+    <row r="30" spans="1:7" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A20:E20"/>
     <mergeCell ref="C1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F4:F20 F23:F1048576">
+  <conditionalFormatting sqref="F4:F21 F24:F1048576">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>ISNUMBER(SEARCH("PASS",$F4))</formula>
     </cfRule>
